--- a/testCase_multi.xlsx
+++ b/testCase_multi.xlsx
@@ -502,10 +502,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV5"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AX11" sqref="AX11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
@@ -804,742 +804,98 @@
       </c>
       <c r="AW1" t="inlineStr">
         <is>
-          <t>특약코드</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>특약명</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>특약금액</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>특약보험기간</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>특약납입기간</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>특약코드</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>특약명</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>특약금액</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>특약보험기간</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>특약납입기간</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>특약코드</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>특약명</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>특약금액</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>특약보험기간</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>특약납입기간</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>특약코드</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>특약명</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>특약금액</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>특약보험기간</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>특약납입기간</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>특약코드</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>특약명</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>특약금액</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>특약보험기간</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>특약납입기간</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
           <t>비고</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>case1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>2140046</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>임의설계</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1974002</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>한화생명 간편가입 누구나필요한 수술비건강보험(갱신형)(무)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>1988001</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>한화생명 동행플러스 종신보험(무)</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>19850421</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>19861115</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>여</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>19850421</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>비위험군</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>20년만기</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>페이백플러스보장특약 미선택</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr"/>
+      <c r="M2" s="1" t="inlineStr"/>
+      <c r="N2" s="1" t="inlineStr"/>
+      <c r="O2" s="1" t="inlineStr"/>
+      <c r="P2" s="1" t="inlineStr"/>
+      <c r="Q2" s="1" t="inlineStr"/>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>3대질병보험료납입지원특약[100%납입지원형]</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
         <is>
           <t>가입금액</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>20,000,000</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>20년만기</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
+          <t>15000000</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>종신</t>
+        </is>
+      </c>
+      <c r="AS2" s="1" t="inlineStr">
         <is>
           <t>20년납</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-월납
-</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>6370002</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>[1](갱)간편가입 암 비관혈수술비(20년)</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>20년만기</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>6371002</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>[2](갱)간편가입 특정소액암 수술비[관혈](20년)</t>
-        </is>
-      </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>2000000</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>20년만기</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>6372002</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>[4](갱)간편가입 소액질병 수술비[관혈](20년)</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>20년만기</t>
-        </is>
-      </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>6373002</t>
-        </is>
-      </c>
-      <c r="BM2" t="inlineStr">
-        <is>
-          <t>[6](갱)간편가입 뇌혈관질환 비관혈수술비(20년)</t>
-        </is>
-      </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t>3000000</t>
-        </is>
-      </c>
-      <c r="BP2" t="inlineStr">
-        <is>
-          <t>20년만기</t>
-        </is>
-      </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t>6374002</t>
-        </is>
-      </c>
-      <c r="BR2" t="inlineStr">
-        <is>
-          <t>[7](갱)간편가입 심장질환 비관혈수술비(20년)</t>
-        </is>
-      </c>
-      <c r="BS2" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
-      <c r="BU2" t="inlineStr">
-        <is>
-          <t>20년만기</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>case2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2140046</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>임의설계</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1930032</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>한화생명 실속플러스 GI보험(무)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>19850421</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>19861115</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>위험3급</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>20160422</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>위험2급</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>19580320</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>위험4급</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>19810805</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>위험2급</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>암플러스추가보장특약 갱신형</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>2종(100%선지급형)</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>환급특약 미선택</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>합계보험료</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>종신</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>30년납</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-월납
-</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>5966005</t>
-        </is>
-      </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>암플러스추가보장특약II(갱신형)(무)</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>500000</t>
-        </is>
-      </c>
-      <c r="BA3" t="inlineStr">
-        <is>
-          <t>3년만기</t>
-        </is>
-      </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>5965004</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>암플러스추가보장특약(갱신형)(무)</t>
-        </is>
-      </c>
-      <c r="BD3" t="inlineStr">
-        <is>
-          <t>500000</t>
-        </is>
-      </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>3년만기</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>case3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2140046</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>임의설계</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1977002</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>한화생명 평생동행 종신보험(무)[보증비용부과형](해지환급금 보증)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>19850421</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>19850421</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>비위험군</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>19861115</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>위험2급</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>20160422</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>비위험군</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>선택안함</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>가입금액</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>10,000,000</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>종신</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>15년납</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-월납
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>case4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2140046</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>임의설계</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1816057</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>한화생명 내게맞는 연금보험 (무)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>19850421</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>19861115</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>위험1급</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>적립형</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>종신연금형(개인형)</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>보험료납입면제특약III</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>가입금액</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>300,000</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>보증기간부(90세보증)</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>55세(주피)</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>종신</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>15년납</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AT2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">
 월납
